--- a/output_preprocessing.xlsx
+++ b/output_preprocessing.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tickers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="relativities" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sector_correlations" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C601"/>
+  <dimension ref="A1:B599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,11 +445,6 @@
           <t>ticker</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>is_more_related</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,9 +457,6 @@
           <t>ADRO.JK</t>
         </is>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -477,9 +469,6 @@
           <t>KKGI.JK</t>
         </is>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -492,9 +481,6 @@
           <t>KOPI.JK</t>
         </is>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -507,9 +493,6 @@
           <t>LEAD.JK</t>
         </is>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,9 +505,6 @@
           <t>MBAP.JK</t>
         </is>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -537,9 +517,6 @@
           <t>MBSS.JK</t>
         </is>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -552,9 +529,6 @@
           <t>MEDC.JK</t>
         </is>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -567,9 +541,6 @@
           <t>MITI.JK</t>
         </is>
       </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -582,9 +553,6 @@
           <t>MTFN.JK</t>
         </is>
       </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -597,9 +565,6 @@
           <t>MYOH.JK</t>
         </is>
       </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -612,9 +577,6 @@
           <t>PGAS.JK</t>
         </is>
       </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -627,9 +589,6 @@
           <t>PKPK.JK</t>
         </is>
       </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -642,9 +601,6 @@
           <t>PSSI.JK</t>
         </is>
       </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -657,9 +613,6 @@
           <t>PTBA.JK</t>
         </is>
       </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -672,9 +625,6 @@
           <t>PTIS.JK</t>
         </is>
       </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -687,9 +637,6 @@
           <t>PTRO.JK</t>
         </is>
       </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -702,9 +649,6 @@
           <t>RAJA.JK</t>
         </is>
       </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -717,9 +661,6 @@
           <t>RIGS.JK</t>
         </is>
       </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -732,9 +673,6 @@
           <t>RUIS.JK</t>
         </is>
       </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -747,9 +685,6 @@
           <t>SHIP.JK</t>
         </is>
       </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -762,9 +697,6 @@
           <t>SMMT.JK</t>
         </is>
       </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -777,9 +709,6 @@
           <t>SMRU.JK</t>
         </is>
       </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -792,9 +721,6 @@
           <t>SOCI.JK</t>
         </is>
       </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -807,9 +733,6 @@
           <t>SURE.JK</t>
         </is>
       </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -822,9 +745,6 @@
           <t>TAMU.JK</t>
         </is>
       </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -837,9 +757,6 @@
           <t>TCPI.JK</t>
         </is>
       </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -852,9 +769,6 @@
           <t>TOBA.JK</t>
         </is>
       </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -867,9 +781,6 @@
           <t>TPMA.JK</t>
         </is>
       </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -882,9 +793,6 @@
           <t>JSKY.JK</t>
         </is>
       </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -897,9 +805,6 @@
           <t>ITMG.JK</t>
         </is>
       </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -912,9 +817,6 @@
           <t>ITMA.JK</t>
         </is>
       </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -927,9 +829,6 @@
           <t>INPS.JK</t>
         </is>
       </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -942,9 +841,6 @@
           <t>AIMS.JK</t>
         </is>
       </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -957,9 +853,6 @@
           <t>AKRA.JK</t>
         </is>
       </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -972,9 +865,6 @@
           <t>APEX.JK</t>
         </is>
       </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -987,9 +877,6 @@
           <t>ARII.JK</t>
         </is>
       </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1002,9 +889,6 @@
           <t>ARTI.JK</t>
         </is>
       </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1017,9 +901,6 @@
           <t>BBRM.JK</t>
         </is>
       </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1032,9 +913,6 @@
           <t>BIPI.JK</t>
         </is>
       </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1047,9 +925,6 @@
           <t>BOSS.JK</t>
         </is>
       </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1062,9 +937,6 @@
           <t>BSSR.JK</t>
         </is>
       </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1077,9 +949,6 @@
           <t>BULL.JK</t>
         </is>
       </c>
-      <c r="C43" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1092,9 +961,6 @@
           <t>BUMI.JK</t>
         </is>
       </c>
-      <c r="C44" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1107,9 +973,6 @@
           <t>BYAN.JK</t>
         </is>
       </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1122,9 +985,6 @@
           <t>CANI.JK</t>
         </is>
       </c>
-      <c r="C46" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1137,9 +997,6 @@
           <t>TRAM.JK</t>
         </is>
       </c>
-      <c r="C47" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1152,9 +1009,6 @@
           <t>CNKO.JK</t>
         </is>
       </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1167,9 +1021,6 @@
           <t>DOID.JK</t>
         </is>
       </c>
-      <c r="C49" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1182,9 +1033,6 @@
           <t>DSSA.JK</t>
         </is>
       </c>
-      <c r="C50" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1197,9 +1045,6 @@
           <t>DWGL.JK</t>
         </is>
       </c>
-      <c r="C51" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1212,9 +1057,6 @@
           <t>ELSA.JK</t>
         </is>
       </c>
-      <c r="C52" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1227,9 +1069,6 @@
           <t>ENRG.JK</t>
         </is>
       </c>
-      <c r="C53" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1242,9 +1081,6 @@
           <t>ETWA.JK</t>
         </is>
       </c>
-      <c r="C54" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1257,9 +1093,6 @@
           <t>FIRE.JK</t>
         </is>
       </c>
-      <c r="C55" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1272,9 +1105,6 @@
           <t>GEMS.JK</t>
         </is>
       </c>
-      <c r="C56" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1287,9 +1117,6 @@
           <t>GTBO.JK</t>
         </is>
       </c>
-      <c r="C57" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1302,9 +1129,6 @@
           <t>HITS.JK</t>
         </is>
       </c>
-      <c r="C58" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1317,9 +1141,6 @@
           <t>HRUM.JK</t>
         </is>
       </c>
-      <c r="C59" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1332,9 +1153,6 @@
           <t>IATA.JK</t>
         </is>
       </c>
-      <c r="C60" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1347,9 +1165,6 @@
           <t>INDY.JK</t>
         </is>
       </c>
-      <c r="C61" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1362,9 +1177,6 @@
           <t>DEWA.JK</t>
         </is>
       </c>
-      <c r="C62" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1377,9 +1189,6 @@
           <t>WINS.JK</t>
         </is>
       </c>
-      <c r="C63" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1392,9 +1201,6 @@
           <t>ADMG.JK</t>
         </is>
       </c>
-      <c r="C64" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1407,9 +1213,6 @@
           <t>SIMA.JK</t>
         </is>
       </c>
-      <c r="C65" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1422,9 +1225,6 @@
           <t>PSAB.JK</t>
         </is>
       </c>
-      <c r="C66" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1437,9 +1237,6 @@
           <t>PICO.JK</t>
         </is>
       </c>
-      <c r="C67" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1452,9 +1249,6 @@
           <t>PBID.JK</t>
         </is>
       </c>
-      <c r="C68" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1467,9 +1261,6 @@
           <t>OKAS.JK</t>
         </is>
       </c>
-      <c r="C69" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1482,9 +1273,6 @@
           <t>NIKL.JK</t>
         </is>
       </c>
-      <c r="C70" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1497,9 +1285,6 @@
           <t>SMBR.JK</t>
         </is>
       </c>
-      <c r="C71" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1512,9 +1297,6 @@
           <t>MOLI.JK</t>
         </is>
       </c>
-      <c r="C72" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1527,9 +1309,6 @@
           <t>MDKA.JK</t>
         </is>
       </c>
-      <c r="C73" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1542,9 +1321,6 @@
           <t>LTLS.JK</t>
         </is>
       </c>
-      <c r="C74" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1557,9 +1333,6 @@
           <t>LMSH.JK</t>
         </is>
       </c>
-      <c r="C75" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1572,9 +1345,6 @@
           <t>KRAS.JK</t>
         </is>
       </c>
-      <c r="C76" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1587,9 +1357,6 @@
           <t>KMTR.JK</t>
         </is>
       </c>
-      <c r="C77" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1602,9 +1369,6 @@
           <t>KDSI.JK</t>
         </is>
       </c>
-      <c r="C78" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1617,9 +1381,6 @@
           <t>MDKI.JK</t>
         </is>
       </c>
-      <c r="C79" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1632,9 +1393,6 @@
           <t>SMCB.JK</t>
         </is>
       </c>
-      <c r="C80" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1647,9 +1405,6 @@
           <t>SMGR.JK</t>
         </is>
       </c>
-      <c r="C81" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1662,9 +1417,6 @@
           <t>SPMA.JK</t>
         </is>
       </c>
-      <c r="C82" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1677,9 +1429,6 @@
           <t>WTON.JK</t>
         </is>
       </c>
-      <c r="C83" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1692,9 +1441,6 @@
           <t>WSBP.JK</t>
         </is>
       </c>
-      <c r="C84" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1707,9 +1453,6 @@
           <t>UNIC.JK</t>
         </is>
       </c>
-      <c r="C85" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1722,9 +1465,6 @@
           <t>TRST.JK</t>
         </is>
       </c>
-      <c r="C86" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1737,9 +1477,6 @@
           <t>TPIA.JK</t>
         </is>
       </c>
-      <c r="C87" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1752,9 +1489,6 @@
           <t>TKIM.JK</t>
         </is>
       </c>
-      <c r="C88" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1767,9 +1501,6 @@
           <t>TIRT.JK</t>
         </is>
       </c>
-      <c r="C89" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1782,9 +1513,6 @@
           <t>TINS.JK</t>
         </is>
       </c>
-      <c r="C90" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1797,9 +1525,6 @@
           <t>TDPM.JK</t>
         </is>
       </c>
-      <c r="C91" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1812,9 +1537,6 @@
           <t>TBMS.JK</t>
         </is>
       </c>
-      <c r="C92" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1827,9 +1549,6 @@
           <t>TALF.JK</t>
         </is>
       </c>
-      <c r="C93" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1842,9 +1561,6 @@
           <t>SWAT.JK</t>
         </is>
       </c>
-      <c r="C94" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1857,9 +1573,6 @@
           <t>SULI.JK</t>
         </is>
       </c>
-      <c r="C95" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1872,9 +1585,6 @@
           <t>SRSN.JK</t>
         </is>
       </c>
-      <c r="C96" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1887,9 +1597,6 @@
           <t>SQMI.JK</t>
         </is>
       </c>
-      <c r="C97" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1902,9 +1609,6 @@
           <t>KBRI.JK</t>
         </is>
       </c>
-      <c r="C98" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1917,9 +1621,6 @@
           <t>YPAS.JK</t>
         </is>
       </c>
-      <c r="C99" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1932,9 +1633,6 @@
           <t>JKSW.JK</t>
         </is>
       </c>
-      <c r="C100" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1947,9 +1645,6 @@
           <t>IPOL.JK</t>
         </is>
       </c>
-      <c r="C101" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1962,9 +1657,6 @@
           <t>CITA.JK</t>
         </is>
       </c>
-      <c r="C102" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1977,9 +1669,6 @@
           <t>BTON.JK</t>
         </is>
       </c>
-      <c r="C103" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1992,9 +1681,6 @@
           <t>BRPT.JK</t>
         </is>
       </c>
-      <c r="C104" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2007,9 +1693,6 @@
           <t>BRNA.JK</t>
         </is>
       </c>
-      <c r="C105" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2022,9 +1705,6 @@
           <t>BRMS.JK</t>
         </is>
       </c>
-      <c r="C106" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2037,9 +1717,6 @@
           <t>BMSR.JK</t>
         </is>
       </c>
-      <c r="C107" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2052,9 +1729,6 @@
           <t>CLPI.JK</t>
         </is>
       </c>
-      <c r="C108" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2067,9 +1741,6 @@
           <t>BAJA.JK</t>
         </is>
       </c>
-      <c r="C109" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2082,9 +1753,6 @@
           <t>ANTM.JK</t>
         </is>
       </c>
-      <c r="C110" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2097,9 +1765,6 @@
           <t>ALMI.JK</t>
         </is>
       </c>
-      <c r="C111" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2112,9 +1777,6 @@
           <t>ALKA.JK</t>
         </is>
       </c>
-      <c r="C112" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2127,9 +1789,6 @@
           <t>ALDO.JK</t>
         </is>
       </c>
-      <c r="C113" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2142,9 +1801,6 @@
           <t>AKPI.JK</t>
         </is>
       </c>
-      <c r="C114" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2157,9 +1813,6 @@
           <t>AGII.JK</t>
         </is>
       </c>
-      <c r="C115" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2172,9 +1825,6 @@
           <t>APLI.JK</t>
         </is>
       </c>
-      <c r="C116" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2187,9 +1837,6 @@
           <t>CTBN.JK</t>
         </is>
       </c>
-      <c r="C117" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2202,9 +1849,6 @@
           <t>DKFT.JK</t>
         </is>
       </c>
-      <c r="C118" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2217,9 +1861,6 @@
           <t>DPNS.JK</t>
         </is>
       </c>
-      <c r="C119" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2232,9 +1873,6 @@
           <t>INTP.JK</t>
         </is>
       </c>
-      <c r="C120" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2247,9 +1885,6 @@
           <t>INTD.JK</t>
         </is>
       </c>
-      <c r="C121" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2262,9 +1897,6 @@
           <t>INRU.JK</t>
         </is>
       </c>
-      <c r="C122" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2277,9 +1909,6 @@
           <t>INKP.JK</t>
         </is>
       </c>
-      <c r="C123" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2292,9 +1921,6 @@
           <t>INCO.JK</t>
         </is>
       </c>
-      <c r="C124" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2307,9 +1933,6 @@
           <t>INCI.JK</t>
         </is>
       </c>
-      <c r="C125" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2322,9 +1945,6 @@
           <t>INCF.JK</t>
         </is>
       </c>
-      <c r="C126" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2337,9 +1957,6 @@
           <t>INAI.JK</t>
         </is>
       </c>
-      <c r="C127" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2352,9 +1969,6 @@
           <t>IGAR.JK</t>
         </is>
       </c>
-      <c r="C128" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2367,9 +1981,6 @@
           <t>HKMU.JK</t>
         </is>
       </c>
-      <c r="C129" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2382,9 +1993,6 @@
           <t>GDST.JK</t>
         </is>
       </c>
-      <c r="C130" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2397,9 +2005,6 @@
           <t>FPNI.JK</t>
         </is>
       </c>
-      <c r="C131" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2412,9 +2017,6 @@
           <t>FASW.JK</t>
         </is>
       </c>
-      <c r="C132" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2427,9 +2029,6 @@
           <t>ESSA.JK</t>
         </is>
       </c>
-      <c r="C133" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2442,9 +2041,6 @@
           <t>EKAD.JK</t>
         </is>
       </c>
-      <c r="C134" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2457,9 +2053,6 @@
           <t>ISSP.JK</t>
         </is>
       </c>
-      <c r="C135" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2472,9 +2065,6 @@
           <t>ZINC.JK</t>
         </is>
       </c>
-      <c r="C136" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2487,9 +2077,6 @@
           <t>ABMM.JK</t>
         </is>
       </c>
-      <c r="C137" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2502,9 +2089,6 @@
           <t>KOBX.JK</t>
         </is>
       </c>
-      <c r="C138" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2517,9 +2101,6 @@
           <t>KOIN.JK</t>
         </is>
       </c>
-      <c r="C139" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2532,9 +2113,6 @@
           <t>KONI.JK</t>
         </is>
       </c>
-      <c r="C140" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2547,9 +2125,6 @@
           <t>KPAL.JK</t>
         </is>
       </c>
-      <c r="C141" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2562,9 +2137,6 @@
           <t>KRAH.JK</t>
         </is>
       </c>
-      <c r="C142" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2577,9 +2149,6 @@
           <t>LION.JK</t>
         </is>
       </c>
-      <c r="C143" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2592,9 +2161,6 @@
           <t>MARK.JK</t>
         </is>
       </c>
-      <c r="C144" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2607,9 +2173,6 @@
           <t>MDRN.JK</t>
         </is>
       </c>
-      <c r="C145" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2622,9 +2185,6 @@
           <t>KIAS.JK</t>
         </is>
       </c>
-      <c r="C146" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2637,9 +2197,6 @@
           <t>MFMI.JK</t>
         </is>
       </c>
-      <c r="C147" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2652,9 +2209,6 @@
           <t>MLPL.JK</t>
         </is>
       </c>
-      <c r="C148" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2667,9 +2221,6 @@
           <t>SCCO.JK</t>
         </is>
       </c>
-      <c r="C149" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2682,9 +2233,6 @@
           <t>SKRN.JK</t>
         </is>
       </c>
-      <c r="C150" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2697,9 +2245,6 @@
           <t>SOSS.JK</t>
         </is>
       </c>
-      <c r="C151" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2712,9 +2257,6 @@
           <t>SPTO.JK</t>
         </is>
       </c>
-      <c r="C152" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2727,9 +2269,6 @@
           <t>TIRA.JK</t>
         </is>
       </c>
-      <c r="C153" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2742,9 +2281,6 @@
           <t>TOTO.JK</t>
         </is>
       </c>
-      <c r="C154" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2757,9 +2293,6 @@
           <t>UNTR.JK</t>
         </is>
       </c>
-      <c r="C155" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2772,9 +2305,6 @@
           <t>MLIA.JK</t>
         </is>
       </c>
-      <c r="C156" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2787,9 +2317,6 @@
           <t>KBLM.JK</t>
         </is>
       </c>
-      <c r="C157" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2802,9 +2329,6 @@
           <t>KBLI.JK</t>
         </is>
       </c>
-      <c r="C158" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2817,9 +2341,6 @@
           <t>JTPE.JK</t>
         </is>
       </c>
-      <c r="C159" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2832,9 +2353,6 @@
           <t>AMFG.JK</t>
         </is>
       </c>
-      <c r="C160" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2847,9 +2365,6 @@
           <t>AMIN.JK</t>
         </is>
       </c>
-      <c r="C161" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2862,9 +2377,6 @@
           <t>APII.JK</t>
         </is>
       </c>
-      <c r="C162" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2877,9 +2389,6 @@
           <t>ARNA.JK</t>
         </is>
       </c>
-      <c r="C163" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2892,9 +2401,6 @@
           <t>ASGR.JK</t>
         </is>
       </c>
-      <c r="C164" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2907,9 +2413,6 @@
           <t>ASII.JK</t>
         </is>
       </c>
-      <c r="C165" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2922,9 +2425,6 @@
           <t>BHIT.JK</t>
         </is>
       </c>
-      <c r="C166" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2937,9 +2437,6 @@
           <t>BMTR.JK</t>
         </is>
       </c>
-      <c r="C167" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2952,9 +2449,6 @@
           <t>BNBR.JK</t>
         </is>
       </c>
-      <c r="C168" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2967,9 +2461,6 @@
           <t>CAKK.JK</t>
         </is>
       </c>
-      <c r="C169" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2982,9 +2473,6 @@
           <t>CTTH.JK</t>
         </is>
       </c>
-      <c r="C170" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2997,9 +2485,6 @@
           <t>DYAN.JK</t>
         </is>
       </c>
-      <c r="C171" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3012,9 +2497,6 @@
           <t>HEXA.JK</t>
         </is>
       </c>
-      <c r="C172" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3027,9 +2509,6 @@
           <t>ICON.JK</t>
         </is>
       </c>
-      <c r="C173" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3042,9 +2521,6 @@
           <t>IKBI.JK</t>
         </is>
       </c>
-      <c r="C174" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3057,9 +2533,6 @@
           <t>IMPC.JK</t>
         </is>
       </c>
-      <c r="C175" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3072,9 +2545,6 @@
           <t>INDX.JK</t>
         </is>
       </c>
-      <c r="C176" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3087,9 +2557,6 @@
           <t>INTA.JK</t>
         </is>
       </c>
-      <c r="C177" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3102,9 +2569,6 @@
           <t>JECC.JK</t>
         </is>
       </c>
-      <c r="C178" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3117,9 +2581,6 @@
           <t>VOKS.JK</t>
         </is>
       </c>
-      <c r="C179" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3132,9 +2593,6 @@
           <t>ZBRA.JK</t>
         </is>
       </c>
-      <c r="C180" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3147,9 +2605,6 @@
           <t>AALI.JK</t>
         </is>
       </c>
-      <c r="C181" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3162,9 +2617,6 @@
           <t>RANC.JK</t>
         </is>
       </c>
-      <c r="C182" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3177,9 +2629,6 @@
           <t>PSDN.JK</t>
         </is>
       </c>
-      <c r="C183" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3192,9 +2641,6 @@
           <t>PCAR.JK</t>
         </is>
       </c>
-      <c r="C184" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3207,9 +2653,6 @@
           <t>PANI.JK</t>
         </is>
       </c>
-      <c r="C185" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3222,9 +2665,6 @@
           <t>PALM.JK</t>
         </is>
       </c>
-      <c r="C186" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3237,9 +2677,6 @@
           <t>MYOR.JK</t>
         </is>
       </c>
-      <c r="C187" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3252,9 +2689,6 @@
           <t>RMBA.JK</t>
         </is>
       </c>
-      <c r="C188" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3267,9 +2701,6 @@
           <t>MRAT.JK</t>
         </is>
       </c>
-      <c r="C189" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3282,9 +2713,6 @@
           <t>MLBI.JK</t>
         </is>
       </c>
-      <c r="C190" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3297,9 +2725,6 @@
           <t>MIDI.JK</t>
         </is>
       </c>
-      <c r="C191" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3312,9 +2737,6 @@
           <t>MGRO.JK</t>
         </is>
       </c>
-      <c r="C192" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3327,9 +2749,6 @@
           <t>MBTO.JK</t>
         </is>
       </c>
-      <c r="C193" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3342,9 +2761,6 @@
           <t>MAIN.JK</t>
         </is>
       </c>
-      <c r="C194" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3357,9 +2773,6 @@
           <t>MAGP.JK</t>
         </is>
       </c>
-      <c r="C195" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3372,9 +2785,6 @@
           <t>MPPA.JK</t>
         </is>
       </c>
-      <c r="C196" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3387,9 +2797,6 @@
           <t>LSIP.JK</t>
         </is>
       </c>
-      <c r="C197" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3402,9 +2809,6 @@
           <t>ROTI.JK</t>
         </is>
       </c>
-      <c r="C198" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3417,9 +2821,6 @@
           <t>SGRO.JK</t>
         </is>
       </c>
-      <c r="C199" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3432,9 +2833,6 @@
           <t>WAPO.JK</t>
         </is>
       </c>
-      <c r="C200" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3447,9 +2845,6 @@
           <t>UNVR.JK</t>
         </is>
       </c>
-      <c r="C201" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3462,9 +2857,6 @@
           <t>UNSP.JK</t>
         </is>
       </c>
-      <c r="C202" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3477,9 +2869,6 @@
           <t>ULTJ.JK</t>
         </is>
       </c>
-      <c r="C203" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3492,9 +2881,6 @@
           <t>TGKA.JK</t>
         </is>
       </c>
-      <c r="C204" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3507,9 +2893,6 @@
           <t>TCID.JK</t>
         </is>
       </c>
-      <c r="C205" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3522,9 +2905,6 @@
           <t>SDPC.JK</t>
         </is>
       </c>
-      <c r="C206" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3537,9 +2917,6 @@
           <t>TBLA.JK</t>
         </is>
       </c>
-      <c r="C207" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3552,9 +2929,6 @@
           <t>SSMS.JK</t>
         </is>
       </c>
-      <c r="C208" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3567,9 +2941,6 @@
           <t>SMAR.JK</t>
         </is>
       </c>
-      <c r="C209" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3582,9 +2953,6 @@
           <t>SKLT.JK</t>
         </is>
       </c>
-      <c r="C210" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -3597,9 +2965,6 @@
           <t>SKBM.JK</t>
         </is>
       </c>
-      <c r="C211" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -3612,9 +2977,6 @@
           <t>SIPD.JK</t>
         </is>
       </c>
-      <c r="C212" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -3627,9 +2989,6 @@
           <t>SIMP.JK</t>
         </is>
       </c>
-      <c r="C213" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3642,9 +3001,6 @@
           <t>STTP.JK</t>
         </is>
       </c>
-      <c r="C214" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3657,9 +3013,6 @@
           <t>WICO.JK</t>
         </is>
       </c>
-      <c r="C215" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3672,9 +3025,6 @@
           <t>KPAS.JK</t>
         </is>
       </c>
-      <c r="C216" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3687,9 +3037,6 @@
           <t>JPFA.JK</t>
         </is>
       </c>
-      <c r="C217" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3702,9 +3049,6 @@
           <t>CPIN.JK</t>
         </is>
       </c>
-      <c r="C218" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3717,9 +3061,6 @@
           <t>CLEO.JK</t>
         </is>
       </c>
-      <c r="C219" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3732,9 +3073,6 @@
           <t>CEKA.JK</t>
         </is>
       </c>
-      <c r="C220" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3747,9 +3085,6 @@
           <t>CAMP.JK</t>
         </is>
       </c>
-      <c r="C221" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3762,9 +3097,6 @@
           <t>BWPT.JK</t>
         </is>
       </c>
-      <c r="C222" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3777,9 +3109,6 @@
           <t>BUDI.JK</t>
         </is>
       </c>
-      <c r="C223" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3792,9 +3121,6 @@
           <t>CPRO.JK</t>
         </is>
       </c>
-      <c r="C224" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3807,9 +3133,6 @@
           <t>BTEK.JK</t>
         </is>
       </c>
-      <c r="C225" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3822,9 +3145,6 @@
           <t>ANJT.JK</t>
         </is>
       </c>
-      <c r="C226" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3837,9 +3157,6 @@
           <t>ANDI.JK</t>
         </is>
       </c>
-      <c r="C227" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -3852,9 +3169,6 @@
           <t>AMRT.JK</t>
         </is>
       </c>
-      <c r="C228" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3867,9 +3181,6 @@
           <t>ALTO.JK</t>
         </is>
       </c>
-      <c r="C229" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -3882,9 +3193,6 @@
           <t>AISA.JK</t>
         </is>
       </c>
-      <c r="C230" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -3897,9 +3205,6 @@
           <t>ADES.JK</t>
         </is>
       </c>
-      <c r="C231" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -3912,9 +3217,6 @@
           <t>BISI.JK</t>
         </is>
       </c>
-      <c r="C232" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -3927,9 +3229,6 @@
           <t>KINO.JK</t>
         </is>
       </c>
-      <c r="C233" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -3942,9 +3241,6 @@
           <t>DAYA.JK</t>
         </is>
       </c>
-      <c r="C234" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -3957,9 +3253,6 @@
           <t>DPUM.JK</t>
         </is>
       </c>
-      <c r="C235" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -3972,9 +3265,6 @@
           <t>JAWA.JK</t>
         </is>
       </c>
-      <c r="C236" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -3987,9 +3277,6 @@
           <t>INDF.JK</t>
         </is>
       </c>
-      <c r="C237" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -4002,9 +3289,6 @@
           <t>ICBP.JK</t>
         </is>
       </c>
-      <c r="C238" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -4017,9 +3301,6 @@
           <t>HOKI.JK</t>
         </is>
       </c>
-      <c r="C239" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -4032,9 +3313,6 @@
           <t>HMSP.JK</t>
         </is>
       </c>
-      <c r="C240" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -4047,9 +3325,6 @@
           <t>HERO.JK</t>
         </is>
       </c>
-      <c r="C241" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -4062,9 +3337,6 @@
           <t>DLTA.JK</t>
         </is>
       </c>
-      <c r="C242" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -4077,9 +3349,6 @@
           <t>GZCO.JK</t>
         </is>
       </c>
-      <c r="C243" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -4092,9 +3361,6 @@
           <t>GOLL.JK</t>
         </is>
       </c>
-      <c r="C244" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -4107,9 +3373,6 @@
           <t>GGRM.JK</t>
         </is>
       </c>
-      <c r="C245" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -4122,9 +3385,6 @@
           <t>FISH.JK</t>
         </is>
       </c>
-      <c r="C246" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -4137,9 +3397,6 @@
           <t>EPMT.JK</t>
         </is>
       </c>
-      <c r="C247" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -4152,9 +3409,6 @@
           <t>DSNG.JK</t>
         </is>
       </c>
-      <c r="C248" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -4167,9 +3421,6 @@
           <t>DSFI.JK</t>
         </is>
       </c>
-      <c r="C249" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -4182,9 +3433,6 @@
           <t>GOOD.JK</t>
         </is>
       </c>
-      <c r="C250" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -4197,9 +3445,6 @@
           <t>WIIM.JK</t>
         </is>
       </c>
-      <c r="C251" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -4212,9 +3457,6 @@
           <t>ABBA.JK</t>
         </is>
       </c>
-      <c r="C252" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -4227,9 +3469,6 @@
           <t>PDES.JK</t>
         </is>
       </c>
-      <c r="C253" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -4242,9 +3481,6 @@
           <t>PBRX.JK</t>
         </is>
       </c>
-      <c r="C254" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -4257,9 +3493,6 @@
           <t>PANR.JK</t>
         </is>
       </c>
-      <c r="C255" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -4272,9 +3505,6 @@
           <t>NUSA.JK</t>
         </is>
       </c>
-      <c r="C256" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -4287,9 +3517,6 @@
           <t>NASA.JK</t>
         </is>
       </c>
-      <c r="C257" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -4302,9 +3529,6 @@
           <t>MYTX.JK</t>
         </is>
       </c>
-      <c r="C258" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -4317,9 +3541,6 @@
           <t>MSKY.JK</t>
         </is>
       </c>
-      <c r="C259" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -4332,9 +3553,6 @@
           <t>MSIN.JK</t>
         </is>
       </c>
-      <c r="C260" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -4347,9 +3565,6 @@
           <t>MPMX.JK</t>
         </is>
       </c>
-      <c r="C261" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -4362,9 +3577,6 @@
           <t>PGLI.JK</t>
         </is>
       </c>
-      <c r="C262" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -4377,9 +3589,6 @@
           <t>MNCN.JK</t>
         </is>
       </c>
-      <c r="C263" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -4392,9 +3601,6 @@
           <t>MINA.JK</t>
         </is>
       </c>
-      <c r="C264" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -4407,9 +3613,6 @@
           <t>MICE.JK</t>
         </is>
       </c>
-      <c r="C265" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -4422,9 +3625,6 @@
           <t>MDIA.JK</t>
         </is>
       </c>
-      <c r="C266" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -4437,9 +3637,6 @@
           <t>MASA.JK</t>
         </is>
       </c>
-      <c r="C267" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -4452,9 +3649,6 @@
           <t>MARI.JK</t>
         </is>
       </c>
-      <c r="C268" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -4467,9 +3661,6 @@
           <t>MAPI.JK</t>
         </is>
       </c>
-      <c r="C269" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -4482,9 +3673,6 @@
           <t>MAPB.JK</t>
         </is>
       </c>
-      <c r="C270" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -4497,9 +3685,6 @@
           <t>MAPA.JK</t>
         </is>
       </c>
-      <c r="C271" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -4512,9 +3697,6 @@
           <t>MAMI.JK</t>
         </is>
       </c>
-      <c r="C272" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -4527,9 +3709,6 @@
           <t>MKNT.JK</t>
         </is>
       </c>
-      <c r="C273" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -4542,9 +3721,6 @@
           <t>MABA.JK</t>
         </is>
       </c>
-      <c r="C274" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -4557,9 +3733,6 @@
           <t>PJAA.JK</t>
         </is>
       </c>
-      <c r="C275" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -4572,9 +3745,6 @@
           <t>POLY.JK</t>
         </is>
       </c>
-      <c r="C276" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -4587,9 +3757,6 @@
           <t>WOOD.JK</t>
         </is>
       </c>
-      <c r="C277" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -4602,9 +3769,6 @@
           <t>VIVA.JK</t>
         </is>
       </c>
-      <c r="C278" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -4617,9 +3781,6 @@
           <t>UNIT.JK</t>
         </is>
       </c>
-      <c r="C279" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -4632,9 +3793,6 @@
           <t>TRIS.JK</t>
         </is>
       </c>
-      <c r="C280" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -4647,9 +3805,6 @@
           <t>TMPO.JK</t>
         </is>
       </c>
-      <c r="C281" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -4662,9 +3817,6 @@
           <t>TFCO.JK</t>
         </is>
       </c>
-      <c r="C282" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -4677,9 +3829,6 @@
           <t>TELE.JK</t>
         </is>
       </c>
-      <c r="C283" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -4692,9 +3841,6 @@
           <t>SSTM.JK</t>
         </is>
       </c>
-      <c r="C284" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -4707,9 +3853,6 @@
           <t>SRIL.JK</t>
         </is>
       </c>
-      <c r="C285" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -4722,9 +3865,6 @@
           <t>PNSE.JK</t>
         </is>
       </c>
-      <c r="C286" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -4737,9 +3877,6 @@
           <t>SOTS.JK</t>
         </is>
       </c>
-      <c r="C287" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -4752,9 +3889,6 @@
           <t>SMSM.JK</t>
         </is>
       </c>
-      <c r="C288" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -4767,9 +3901,6 @@
           <t>SHID.JK</t>
         </is>
       </c>
-      <c r="C289" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -4782,9 +3913,6 @@
           <t>SCMA.JK</t>
         </is>
       </c>
-      <c r="C290" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -4797,9 +3925,6 @@
           <t>RICY.JK</t>
         </is>
       </c>
-      <c r="C291" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -4812,9 +3937,6 @@
           <t>RALS.JK</t>
         </is>
       </c>
-      <c r="C292" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -4827,9 +3949,6 @@
           <t>PZZA.JK</t>
         </is>
       </c>
-      <c r="C293" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -4842,9 +3961,6 @@
           <t>PTSP.JK</t>
         </is>
       </c>
-      <c r="C294" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -4857,9 +3973,6 @@
           <t>PSKT.JK</t>
         </is>
       </c>
-      <c r="C295" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -4872,9 +3985,6 @@
           <t>PRAS.JK</t>
         </is>
       </c>
-      <c r="C296" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -4887,9 +3997,6 @@
           <t>SONA.JK</t>
         </is>
       </c>
-      <c r="C297" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -4902,9 +4009,6 @@
           <t>LPPF.JK</t>
         </is>
       </c>
-      <c r="C298" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -4917,9 +4021,6 @@
           <t>LPIN.JK</t>
         </is>
       </c>
-      <c r="C299" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -4932,9 +4033,6 @@
           <t>LMPI.JK</t>
         </is>
       </c>
-      <c r="C300" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -4947,9 +4045,6 @@
           <t>DIGI.JK</t>
         </is>
       </c>
-      <c r="C301" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -4962,9 +4057,6 @@
           <t>DFAM.JK</t>
         </is>
       </c>
-      <c r="C302" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -4977,9 +4069,6 @@
           <t>CSAP.JK</t>
         </is>
       </c>
-      <c r="C303" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -4992,9 +4081,6 @@
           <t>CNTX.JK</t>
         </is>
       </c>
-      <c r="C304" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -5007,9 +4093,6 @@
           <t>CINT.JK</t>
         </is>
       </c>
-      <c r="C305" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -5022,9 +4105,6 @@
           <t>CARS.JK</t>
         </is>
       </c>
-      <c r="C306" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -5037,9 +4117,6 @@
           <t>BUVA.JK</t>
         </is>
       </c>
-      <c r="C307" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -5052,9 +4129,6 @@
           <t>BRAM.JK</t>
         </is>
       </c>
-      <c r="C308" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -5067,9 +4141,6 @@
           <t>BOLT.JK</t>
         </is>
       </c>
-      <c r="C309" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -5082,9 +4153,6 @@
           <t>DUCK.JK</t>
         </is>
       </c>
-      <c r="C310" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -5097,9 +4165,6 @@
           <t>BOGA.JK</t>
         </is>
       </c>
-      <c r="C311" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -5112,9 +4177,6 @@
           <t>BIMA.JK</t>
         </is>
       </c>
-      <c r="C312" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -5127,9 +4189,6 @@
           <t>BELL.JK</t>
         </is>
       </c>
-      <c r="C313" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -5142,9 +4201,6 @@
           <t>BAYU.JK</t>
         </is>
       </c>
-      <c r="C314" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -5157,9 +4213,6 @@
           <t>BATA.JK</t>
         </is>
       </c>
-      <c r="C315" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -5172,9 +4225,6 @@
           <t>AUTO.JK</t>
         </is>
       </c>
-      <c r="C316" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -5187,9 +4237,6 @@
           <t>ARTA.JK</t>
         </is>
       </c>
-      <c r="C317" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -5202,9 +4249,6 @@
           <t>ARGO.JK</t>
         </is>
       </c>
-      <c r="C318" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -5217,9 +4261,6 @@
           <t>AKKU.JK</t>
         </is>
       </c>
-      <c r="C319" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -5232,9 +4273,6 @@
           <t>ACES.JK</t>
         </is>
       </c>
-      <c r="C320" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -5247,9 +4285,6 @@
           <t>BLTZ.JK</t>
         </is>
       </c>
-      <c r="C321" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -5262,9 +4297,6 @@
           <t>ECII.JK</t>
         </is>
       </c>
-      <c r="C322" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -5277,9 +4309,6 @@
           <t>ERAA.JK</t>
         </is>
       </c>
-      <c r="C323" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -5292,9 +4321,6 @@
           <t>ERTX.JK</t>
         </is>
       </c>
-      <c r="C324" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -5307,9 +4333,6 @@
           <t>KPIG.JK</t>
         </is>
       </c>
-      <c r="C325" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -5322,9 +4345,6 @@
           <t>KICI.JK</t>
         </is>
       </c>
-      <c r="C326" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -5337,9 +4357,6 @@
           <t>JSPT.JK</t>
         </is>
       </c>
-      <c r="C327" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -5352,9 +4369,6 @@
           <t>JIHD.JK</t>
         </is>
       </c>
-      <c r="C328" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -5367,9 +4381,6 @@
           <t>JGLE.JK</t>
         </is>
       </c>
-      <c r="C329" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -5382,9 +4393,6 @@
           <t>INDS.JK</t>
         </is>
       </c>
-      <c r="C330" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -5397,9 +4405,6 @@
           <t>INDR.JK</t>
         </is>
       </c>
-      <c r="C331" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -5412,9 +4417,6 @@
           <t>IMAS.JK</t>
         </is>
       </c>
-      <c r="C332" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -5427,9 +4429,6 @@
           <t>IKAI.JK</t>
         </is>
       </c>
-      <c r="C333" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -5442,9 +4441,6 @@
           <t>IIKP.JK</t>
         </is>
       </c>
-      <c r="C334" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -5457,9 +4453,6 @@
           <t>HRTA.JK</t>
         </is>
       </c>
-      <c r="C335" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -5472,9 +4465,6 @@
           <t>HOTL.JK</t>
         </is>
       </c>
-      <c r="C336" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -5487,9 +4477,6 @@
           <t>HOME.JK</t>
         </is>
       </c>
-      <c r="C337" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -5502,9 +4489,6 @@
           <t>GLOB.JK</t>
         </is>
       </c>
-      <c r="C338" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -5517,9 +4501,6 @@
           <t>GJTL.JK</t>
         </is>
       </c>
-      <c r="C339" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -5532,9 +4513,6 @@
           <t>GEMA.JK</t>
         </is>
       </c>
-      <c r="C340" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -5547,9 +4525,6 @@
           <t>GDYR.JK</t>
         </is>
       </c>
-      <c r="C341" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -5562,9 +4537,6 @@
           <t>FORU.JK</t>
         </is>
       </c>
-      <c r="C342" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -5577,9 +4549,6 @@
           <t>FILM.JK</t>
         </is>
       </c>
-      <c r="C343" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -5592,9 +4561,6 @@
           <t>FAST.JK</t>
         </is>
       </c>
-      <c r="C344" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -5607,9 +4573,6 @@
           <t>ESTI.JK</t>
         </is>
       </c>
-      <c r="C345" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -5622,9 +4585,6 @@
           <t>YELO.JK</t>
         </is>
       </c>
-      <c r="C346" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -5637,9 +4597,6 @@
           <t>ZONE.JK</t>
         </is>
       </c>
-      <c r="C347" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -5652,9 +4609,6 @@
           <t>DVLA.JK</t>
         </is>
       </c>
-      <c r="C348" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -5667,9 +4621,6 @@
           <t>SILO.JK</t>
         </is>
       </c>
-      <c r="C349" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -5682,9 +4633,6 @@
           <t>SIDO.JK</t>
         </is>
       </c>
-      <c r="C350" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -5697,9 +4645,6 @@
           <t>SCPI.JK</t>
         </is>
       </c>
-      <c r="C351" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -5712,9 +4657,6 @@
           <t>SAME.JK</t>
         </is>
       </c>
-      <c r="C352" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -5727,9 +4669,6 @@
           <t>PYFA.JK</t>
         </is>
       </c>
-      <c r="C353" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -5742,9 +4681,6 @@
           <t>PRIM.JK</t>
         </is>
       </c>
-      <c r="C354" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -5757,9 +4693,6 @@
           <t>SRAJ.JK</t>
         </is>
       </c>
-      <c r="C355" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -5772,9 +4705,6 @@
           <t>PRDA.JK</t>
         </is>
       </c>
-      <c r="C356" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -5787,9 +4717,6 @@
           <t>MIKA.JK</t>
         </is>
       </c>
-      <c r="C357" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -5802,9 +4729,6 @@
           <t>MERK.JK</t>
         </is>
       </c>
-      <c r="C358" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -5817,9 +4741,6 @@
           <t>KLBF.JK</t>
         </is>
       </c>
-      <c r="C359" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -5832,9 +4753,6 @@
           <t>KAEF.JK</t>
         </is>
       </c>
-      <c r="C360" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -5847,9 +4765,6 @@
           <t>INAF.JK</t>
         </is>
       </c>
-      <c r="C361" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -5862,9 +4777,6 @@
           <t>HEAL.JK</t>
         </is>
       </c>
-      <c r="C362" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -5877,9 +4789,6 @@
           <t>PEHA.JK</t>
         </is>
       </c>
-      <c r="C363" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -5892,9 +4801,6 @@
           <t>TSPC.JK</t>
         </is>
       </c>
-      <c r="C364" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -5907,9 +4813,6 @@
           <t>ABDA.JK</t>
         </is>
       </c>
-      <c r="C365" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -5922,9 +4825,6 @@
           <t>NISP.JK</t>
         </is>
       </c>
-      <c r="C366" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -5937,9 +4837,6 @@
           <t>NICK.JK</t>
         </is>
       </c>
-      <c r="C367" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -5952,9 +4849,6 @@
           <t>MTWI.JK</t>
         </is>
       </c>
-      <c r="C368" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -5967,9 +4861,6 @@
           <t>MREI.JK</t>
         </is>
       </c>
-      <c r="C369" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -5982,9 +4873,6 @@
           <t>MGNA.JK</t>
         </is>
       </c>
-      <c r="C370" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -5997,9 +4885,6 @@
           <t>MFIN.JK</t>
         </is>
       </c>
-      <c r="C371" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -6012,9 +4897,6 @@
           <t>MEGA.JK</t>
         </is>
       </c>
-      <c r="C372" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -6027,9 +4909,6 @@
           <t>MCOR.JK</t>
         </is>
       </c>
-      <c r="C373" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -6042,9 +4921,6 @@
           <t>MAYA.JK</t>
         </is>
       </c>
-      <c r="C374" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -6057,9 +4933,6 @@
           <t>NOBU.JK</t>
         </is>
       </c>
-      <c r="C375" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -6072,9 +4945,6 @@
           <t>LPPS.JK</t>
         </is>
       </c>
-      <c r="C376" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -6087,9 +4957,6 @@
           <t>JMAS.JK</t>
         </is>
       </c>
-      <c r="C377" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -6102,9 +4969,6 @@
           <t>INPC.JK</t>
         </is>
       </c>
-      <c r="C378" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -6117,9 +4981,6 @@
           <t>IMJS.JK</t>
         </is>
       </c>
-      <c r="C379" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -6132,9 +4993,6 @@
           <t>IBFN.JK</t>
         </is>
       </c>
-      <c r="C380" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -6147,9 +5005,6 @@
           <t>HDFA.JK</t>
         </is>
       </c>
-      <c r="C381" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -6162,9 +5017,6 @@
           <t>GSMF.JK</t>
         </is>
       </c>
-      <c r="C382" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -6177,9 +5029,6 @@
           <t>DNET.JK</t>
         </is>
       </c>
-      <c r="C383" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -6192,9 +5041,6 @@
           <t>DNAR.JK</t>
         </is>
       </c>
-      <c r="C384" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -6207,9 +5053,6 @@
           <t>DEFI.JK</t>
         </is>
       </c>
-      <c r="C385" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -6222,9 +5065,6 @@
           <t>LPGI.JK</t>
         </is>
       </c>
-      <c r="C386" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -6237,9 +5077,6 @@
           <t>CFIN.JK</t>
         </is>
       </c>
-      <c r="C387" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -6252,9 +5089,6 @@
           <t>OCAP.JK</t>
         </is>
       </c>
-      <c r="C388" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -6267,9 +5101,6 @@
           <t>PANS.JK</t>
         </is>
       </c>
-      <c r="C389" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -6282,9 +5113,6 @@
           <t>VRNA.JK</t>
         </is>
       </c>
-      <c r="C390" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -6297,9 +5125,6 @@
           <t>VINS.JK</t>
         </is>
       </c>
-      <c r="C391" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -6312,9 +5137,6 @@
           <t>VICO.JK</t>
         </is>
       </c>
-      <c r="C392" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -6327,9 +5149,6 @@
           <t>TUGU.JK</t>
         </is>
       </c>
-      <c r="C393" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -6342,9 +5161,6 @@
           <t>TRUS.JK</t>
         </is>
       </c>
-      <c r="C394" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -6357,9 +5173,6 @@
           <t>TRIM.JK</t>
         </is>
       </c>
-      <c r="C395" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -6372,9 +5185,6 @@
           <t>TIFA.JK</t>
         </is>
       </c>
-      <c r="C396" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -6387,9 +5197,6 @@
           <t>STAR.JK</t>
         </is>
       </c>
-      <c r="C397" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -6402,9 +5209,6 @@
           <t>SRTG.JK</t>
         </is>
       </c>
-      <c r="C398" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -6417,9 +5221,6 @@
           <t>PADI.JK</t>
         </is>
       </c>
-      <c r="C399" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -6432,9 +5233,6 @@
           <t>SMMA.JK</t>
         </is>
       </c>
-      <c r="C400" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -6447,9 +5245,6 @@
           <t>RELI.JK</t>
         </is>
       </c>
-      <c r="C401" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -6462,9 +5257,6 @@
           <t>POOL.JK</t>
         </is>
       </c>
-      <c r="C402" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -6477,9 +5269,6 @@
           <t>POLA.JK</t>
         </is>
       </c>
-      <c r="C403" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -6492,9 +5281,6 @@
           <t>PNLF.JK</t>
         </is>
       </c>
-      <c r="C404" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -6507,9 +5293,6 @@
           <t>PNIN.JK</t>
         </is>
       </c>
-      <c r="C405" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -6522,9 +5305,6 @@
           <t>PNBS.JK</t>
         </is>
       </c>
-      <c r="C406" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -6537,9 +5317,6 @@
           <t>PNBN.JK</t>
         </is>
       </c>
-      <c r="C407" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -6552,9 +5329,6 @@
           <t>PLAS.JK</t>
         </is>
       </c>
-      <c r="C408" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -6567,9 +5341,6 @@
           <t>PEGE.JK</t>
         </is>
       </c>
-      <c r="C409" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -6582,9 +5353,6 @@
           <t>SDRA.JK</t>
         </is>
       </c>
-      <c r="C410" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -6597,9 +5365,6 @@
           <t>CASA.JK</t>
         </is>
       </c>
-      <c r="C411" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -6612,9 +5377,6 @@
           <t>BVIC.JK</t>
         </is>
       </c>
-      <c r="C412" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -6627,9 +5389,6 @@
           <t>BTPS.JK</t>
         </is>
       </c>
-      <c r="C413" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -6642,9 +5401,6 @@
           <t>BBNI.JK</t>
         </is>
       </c>
-      <c r="C414" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -6657,9 +5413,6 @@
           <t>BBMD.JK</t>
         </is>
       </c>
-      <c r="C415" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -6672,9 +5425,6 @@
           <t>BBLD.JK</t>
         </is>
       </c>
-      <c r="C416" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -6687,9 +5437,6 @@
           <t>BBKP.JK</t>
         </is>
       </c>
-      <c r="C417" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -6702,9 +5449,6 @@
           <t>BBHI.JK</t>
         </is>
       </c>
-      <c r="C418" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -6717,9 +5461,6 @@
           <t>BBCA.JK</t>
         </is>
       </c>
-      <c r="C419" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -6732,9 +5473,6 @@
           <t>BACA.JK</t>
         </is>
       </c>
-      <c r="C420" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -6747,9 +5485,6 @@
           <t>BABP.JK</t>
         </is>
       </c>
-      <c r="C421" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -6762,9 +5497,6 @@
           <t>ASRM.JK</t>
         </is>
       </c>
-      <c r="C422" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -6777,9 +5509,6 @@
           <t>BBRI.JK</t>
         </is>
       </c>
-      <c r="C423" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -6792,9 +5521,6 @@
           <t>ASMI.JK</t>
         </is>
       </c>
-      <c r="C424" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -6807,9 +5533,6 @@
           <t>ASDM.JK</t>
         </is>
       </c>
-      <c r="C425" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -6822,9 +5545,6 @@
           <t>ASBI.JK</t>
         </is>
       </c>
-      <c r="C426" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -6837,9 +5557,6 @@
           <t>ARTO.JK</t>
         </is>
       </c>
-      <c r="C427" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -6852,9 +5569,6 @@
           <t>APIC.JK</t>
         </is>
       </c>
-      <c r="C428" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -6867,9 +5581,6 @@
           <t>AMAG.JK</t>
         </is>
       </c>
-      <c r="C429" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -6882,9 +5593,6 @@
           <t>AHAP.JK</t>
         </is>
       </c>
-      <c r="C430" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -6897,9 +5605,6 @@
           <t>AGRS.JK</t>
         </is>
       </c>
-      <c r="C431" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -6912,9 +5617,6 @@
           <t>AGRO.JK</t>
         </is>
       </c>
-      <c r="C432" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -6927,9 +5629,6 @@
           <t>ADMF.JK</t>
         </is>
       </c>
-      <c r="C433" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -6942,9 +5641,6 @@
           <t>ASJT.JK</t>
         </is>
       </c>
-      <c r="C434" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -6957,9 +5653,6 @@
           <t>BBTN.JK</t>
         </is>
       </c>
-      <c r="C435" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -6972,9 +5665,6 @@
           <t>BBYB.JK</t>
         </is>
       </c>
-      <c r="C436" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -6987,9 +5677,6 @@
           <t>BCAP.JK</t>
         </is>
       </c>
-      <c r="C437" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -7002,9 +5689,6 @@
           <t>BTPN.JK</t>
         </is>
       </c>
-      <c r="C438" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -7017,9 +5701,6 @@
           <t>BSWD.JK</t>
         </is>
       </c>
-      <c r="C439" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -7032,9 +5713,6 @@
           <t>BSIM.JK</t>
         </is>
       </c>
-      <c r="C440" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -7047,9 +5725,6 @@
           <t>BRIS.JK</t>
         </is>
       </c>
-      <c r="C441" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -7062,9 +5737,6 @@
           <t>BPII.JK</t>
         </is>
       </c>
-      <c r="C442" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -7077,9 +5749,6 @@
           <t>BPFI.JK</t>
         </is>
       </c>
-      <c r="C443" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -7092,9 +5761,6 @@
           <t>BNLI.JK</t>
         </is>
       </c>
-      <c r="C444" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -7107,9 +5773,6 @@
           <t>BNII.JK</t>
         </is>
       </c>
-      <c r="C445" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -7122,9 +5785,6 @@
           <t>BNGA.JK</t>
         </is>
       </c>
-      <c r="C446" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -7137,9 +5797,6 @@
           <t>BNBA.JK</t>
         </is>
       </c>
-      <c r="C447" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -7152,9 +5809,6 @@
           <t>BMRI.JK</t>
         </is>
       </c>
-      <c r="C448" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -7167,9 +5821,6 @@
           <t>BMAS.JK</t>
         </is>
       </c>
-      <c r="C449" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -7182,9 +5833,6 @@
           <t>BKSW.JK</t>
         </is>
       </c>
-      <c r="C450" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -7197,9 +5845,6 @@
           <t>BJTM.JK</t>
         </is>
       </c>
-      <c r="C451" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -7212,9 +5857,6 @@
           <t>BJBR.JK</t>
         </is>
       </c>
-      <c r="C452" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -7227,9 +5869,6 @@
           <t>BINA.JK</t>
         </is>
       </c>
-      <c r="C453" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -7242,9 +5881,6 @@
           <t>BGTG.JK</t>
         </is>
       </c>
-      <c r="C454" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -7257,9 +5893,6 @@
           <t>BFIN.JK</t>
         </is>
       </c>
-      <c r="C455" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -7272,9 +5905,6 @@
           <t>BEKS.JK</t>
         </is>
       </c>
-      <c r="C456" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -7287,9 +5917,6 @@
           <t>BDMN.JK</t>
         </is>
       </c>
-      <c r="C457" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -7302,9 +5929,6 @@
           <t>BCIC.JK</t>
         </is>
       </c>
-      <c r="C458" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -7317,9 +5941,6 @@
           <t>WOMF.JK</t>
         </is>
       </c>
-      <c r="C459" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -7332,9 +5953,6 @@
           <t>YULE.JK</t>
         </is>
       </c>
-      <c r="C460" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -7347,9 +5965,6 @@
           <t>APLN.JK</t>
         </is>
       </c>
-      <c r="C461" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -7362,9 +5977,6 @@
           <t>LCGP.JK</t>
         </is>
       </c>
-      <c r="C462" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -7377,9 +5989,6 @@
           <t>LPCK.JK</t>
         </is>
       </c>
-      <c r="C463" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -7392,9 +6001,6 @@
           <t>LPKR.JK</t>
         </is>
       </c>
-      <c r="C464" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -7407,9 +6013,6 @@
           <t>LPLI.JK</t>
         </is>
       </c>
-      <c r="C465" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -7422,9 +6025,6 @@
           <t>MDLN.JK</t>
         </is>
       </c>
-      <c r="C466" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -7437,9 +6037,6 @@
           <t>MKPI.JK</t>
         </is>
       </c>
-      <c r="C467" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -7452,9 +6049,6 @@
           <t>MMLP.JK</t>
         </is>
       </c>
-      <c r="C468" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -7467,9 +6061,6 @@
           <t>MPRO.JK</t>
         </is>
       </c>
-      <c r="C469" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -7482,9 +6073,6 @@
           <t>MTLA.JK</t>
         </is>
       </c>
-      <c r="C470" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -7497,9 +6085,6 @@
           <t>MTSM.JK</t>
         </is>
       </c>
-      <c r="C471" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -7512,9 +6097,6 @@
           <t>MYRX.JK</t>
         </is>
       </c>
-      <c r="C472" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -7527,9 +6109,6 @@
           <t>NIRO.JK</t>
         </is>
       </c>
-      <c r="C473" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -7542,9 +6121,6 @@
           <t>LAND.JK</t>
         </is>
       </c>
-      <c r="C474" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -7557,9 +6133,6 @@
           <t>OMRE.JK</t>
         </is>
       </c>
-      <c r="C475" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -7572,9 +6145,6 @@
           <t>POLL.JK</t>
         </is>
       </c>
-      <c r="C476" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -7587,9 +6157,6 @@
           <t>PPRO.JK</t>
         </is>
       </c>
-      <c r="C477" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -7602,9 +6169,6 @@
           <t>PUDP.JK</t>
         </is>
       </c>
-      <c r="C478" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -7617,9 +6181,6 @@
           <t>PWON.JK</t>
         </is>
       </c>
-      <c r="C479" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -7632,9 +6193,6 @@
           <t>RBMS.JK</t>
         </is>
       </c>
-      <c r="C480" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -7647,9 +6205,6 @@
           <t>RDTX.JK</t>
         </is>
       </c>
-      <c r="C481" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -7662,9 +6217,6 @@
           <t>RIMO.JK</t>
         </is>
       </c>
-      <c r="C482" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -7677,9 +6229,6 @@
           <t>RISE.JK</t>
         </is>
       </c>
-      <c r="C483" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -7692,9 +6241,6 @@
           <t>RODA.JK</t>
         </is>
       </c>
-      <c r="C484" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -7707,9 +6253,6 @@
           <t>SATU.JK</t>
         </is>
       </c>
-      <c r="C485" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -7722,9 +6265,6 @@
           <t>SMDM.JK</t>
         </is>
       </c>
-      <c r="C486" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -7737,9 +6277,6 @@
           <t>SMRA.JK</t>
         </is>
       </c>
-      <c r="C487" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -7752,9 +6289,6 @@
           <t>PLIN.JK</t>
         </is>
       </c>
-      <c r="C488" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -7767,9 +6301,6 @@
           <t>TARA.JK</t>
         </is>
       </c>
-      <c r="C489" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -7782,9 +6313,6 @@
           <t>KIJA.JK</t>
         </is>
       </c>
-      <c r="C490" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -7797,9 +6325,6 @@
           <t>INPP.JK</t>
         </is>
       </c>
-      <c r="C491" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -7812,9 +6337,6 @@
           <t>ARMY.JK</t>
         </is>
       </c>
-      <c r="C492" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -7827,9 +6349,6 @@
           <t>ASRI.JK</t>
         </is>
       </c>
-      <c r="C493" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -7842,9 +6361,6 @@
           <t>BAPA.JK</t>
         </is>
       </c>
-      <c r="C494" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -7857,9 +6373,6 @@
           <t>BCIP.JK</t>
         </is>
       </c>
-      <c r="C495" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -7872,9 +6385,6 @@
           <t>BEST.JK</t>
         </is>
       </c>
-      <c r="C496" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -7887,9 +6397,6 @@
           <t>BIKA.JK</t>
         </is>
       </c>
-      <c r="C497" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -7902,9 +6409,6 @@
           <t>BIPP.JK</t>
         </is>
       </c>
-      <c r="C498" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -7917,9 +6421,6 @@
           <t>BKDP.JK</t>
         </is>
       </c>
-      <c r="C499" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -7932,9 +6433,6 @@
           <t>BKSL.JK</t>
         </is>
       </c>
-      <c r="C500" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -7947,9 +6445,6 @@
           <t>BSDE.JK</t>
         </is>
       </c>
-      <c r="C501" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -7962,9 +6457,6 @@
           <t>CITY.JK</t>
         </is>
       </c>
-      <c r="C502" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -7977,9 +6469,6 @@
           <t>COWL.JK</t>
         </is>
       </c>
-      <c r="C503" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -7992,9 +6481,6 @@
           <t>JRPT.JK</t>
         </is>
       </c>
-      <c r="C504" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -8007,9 +6493,6 @@
           <t>CSIS.JK</t>
         </is>
       </c>
-      <c r="C505" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -8022,9 +6505,6 @@
           <t>DART.JK</t>
         </is>
       </c>
-      <c r="C506" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -8037,9 +6517,6 @@
           <t>DILD.JK</t>
         </is>
       </c>
-      <c r="C507" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -8052,9 +6529,6 @@
           <t>DMAS.JK</t>
         </is>
       </c>
-      <c r="C508" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -8067,9 +6541,6 @@
           <t>DUTI.JK</t>
         </is>
       </c>
-      <c r="C509" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -8082,9 +6553,6 @@
           <t>ELTY.JK</t>
         </is>
       </c>
-      <c r="C510" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -8097,9 +6565,6 @@
           <t>EMDE.JK</t>
         </is>
       </c>
-      <c r="C511" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -8112,9 +6577,6 @@
           <t>FMII.JK</t>
         </is>
       </c>
-      <c r="C512" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -8127,9 +6589,6 @@
           <t>FORZ.JK</t>
         </is>
       </c>
-      <c r="C513" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -8142,9 +6601,6 @@
           <t>GAMA.JK</t>
         </is>
       </c>
-      <c r="C514" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -8157,9 +6613,6 @@
           <t>GMTD.JK</t>
         </is>
       </c>
-      <c r="C515" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -8172,9 +6625,6 @@
           <t>GPRA.JK</t>
         </is>
       </c>
-      <c r="C516" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -8187,9 +6637,6 @@
           <t>GWSA.JK</t>
         </is>
       </c>
-      <c r="C517" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -8202,9 +6649,6 @@
           <t>CTRA.JK</t>
         </is>
       </c>
-      <c r="C518" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -8217,9 +6661,6 @@
           <t>URBN.JK</t>
         </is>
       </c>
-      <c r="C519" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -8232,9 +6673,6 @@
           <t>ATIC.JK</t>
         </is>
       </c>
-      <c r="C520" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -8247,9 +6685,6 @@
           <t>DIVA.JK</t>
         </is>
       </c>
-      <c r="C521" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -8262,9 +6697,6 @@
           <t>EMTK.JK</t>
         </is>
       </c>
-      <c r="C522" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -8277,9 +6709,6 @@
           <t>KIOS.JK</t>
         </is>
       </c>
-      <c r="C523" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -8292,9 +6721,6 @@
           <t>KREN.JK</t>
         </is>
       </c>
-      <c r="C524" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -8307,9 +6733,6 @@
           <t>LMAS.JK</t>
         </is>
       </c>
-      <c r="C525" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -8322,9 +6745,6 @@
           <t>LUCK.JK</t>
         </is>
       </c>
-      <c r="C526" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -8337,9 +6757,6 @@
           <t>MCAS.JK</t>
         </is>
       </c>
-      <c r="C527" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -8352,9 +6769,6 @@
           <t>MLPT.JK</t>
         </is>
       </c>
-      <c r="C528" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -8367,9 +6781,6 @@
           <t>MTDL.JK</t>
         </is>
       </c>
-      <c r="C529" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -8382,9 +6793,6 @@
           <t>NFCX.JK</t>
         </is>
       </c>
-      <c r="C530" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -8397,9 +6805,6 @@
           <t>PTSN.JK</t>
         </is>
       </c>
-      <c r="C531" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -8412,9 +6817,6 @@
           <t>SKYB.JK</t>
         </is>
       </c>
-      <c r="C532" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -8427,9 +6829,6 @@
           <t>ACST.JK</t>
         </is>
       </c>
-      <c r="C533" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -8442,9 +6841,6 @@
           <t>LINK.JK</t>
         </is>
       </c>
-      <c r="C534" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -8457,9 +6853,6 @@
           <t>META.JK</t>
         </is>
       </c>
-      <c r="C535" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -8472,9 +6865,6 @@
           <t>MPOW.JK</t>
         </is>
       </c>
-      <c r="C536" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -8487,9 +6877,6 @@
           <t>MTRA.JK</t>
         </is>
       </c>
-      <c r="C537" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -8502,9 +6889,6 @@
           <t>NRCA.JK</t>
         </is>
       </c>
-      <c r="C538" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -8517,9 +6901,6 @@
           <t>OASA.JK</t>
         </is>
       </c>
-      <c r="C539" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -8532,9 +6913,6 @@
           <t>PBSA.JK</t>
         </is>
       </c>
-      <c r="C540" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -8547,9 +6925,6 @@
           <t>PORT.JK</t>
         </is>
       </c>
-      <c r="C541" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -8562,9 +6937,6 @@
           <t>POWR.JK</t>
         </is>
       </c>
-      <c r="C542" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -8577,9 +6949,6 @@
           <t>LCKM.JK</t>
         </is>
       </c>
-      <c r="C543" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -8592,9 +6961,6 @@
           <t>PPRE.JK</t>
         </is>
       </c>
-      <c r="C544" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -8607,9 +6973,6 @@
           <t>SSIA.JK</t>
         </is>
       </c>
-      <c r="C545" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -8622,9 +6985,6 @@
           <t>SUPR.JK</t>
         </is>
       </c>
-      <c r="C546" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -8637,9 +6997,6 @@
           <t>TBIG.JK</t>
         </is>
       </c>
-      <c r="C547" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -8652,9 +7009,6 @@
           <t>TGRA.JK</t>
         </is>
       </c>
-      <c r="C548" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -8667,9 +7021,6 @@
           <t>TLKM.JK</t>
         </is>
       </c>
-      <c r="C549" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -8682,9 +7033,6 @@
           <t>TOPS.JK</t>
         </is>
       </c>
-      <c r="C550" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -8697,9 +7045,6 @@
           <t>TOTL.JK</t>
         </is>
       </c>
-      <c r="C551" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -8712,9 +7057,6 @@
           <t>TOWR.JK</t>
         </is>
       </c>
-      <c r="C552" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -8727,9 +7069,6 @@
           <t>WEGE.JK</t>
         </is>
       </c>
-      <c r="C553" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -8742,9 +7081,6 @@
           <t>PTPP.JK</t>
         </is>
       </c>
-      <c r="C554" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -8757,9 +7093,6 @@
           <t>LAPD.JK</t>
         </is>
       </c>
-      <c r="C555" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -8772,9 +7105,6 @@
           <t>KBLV.JK</t>
         </is>
       </c>
-      <c r="C556" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -8787,9 +7117,6 @@
           <t>KARW.JK</t>
         </is>
       </c>
-      <c r="C557" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -8802,9 +7129,6 @@
           <t>ADHI.JK</t>
         </is>
       </c>
-      <c r="C558" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -8817,9 +7141,6 @@
           <t>BALI.JK</t>
         </is>
       </c>
-      <c r="C559" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -8832,9 +7153,6 @@
           <t>BTEL.JK</t>
         </is>
       </c>
-      <c r="C560" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -8847,9 +7165,6 @@
           <t>BUKK.JK</t>
         </is>
       </c>
-      <c r="C561" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -8862,9 +7177,6 @@
           <t>CASS.JK</t>
         </is>
       </c>
-      <c r="C562" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -8877,9 +7189,6 @@
           <t>CENT.JK</t>
         </is>
       </c>
-      <c r="C563" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -8892,9 +7201,6 @@
           <t>CMNP.JK</t>
         </is>
       </c>
-      <c r="C564" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -8907,9 +7213,6 @@
           <t>DGIK.JK</t>
         </is>
       </c>
-      <c r="C565" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -8922,9 +7225,6 @@
           <t>EXCL.JK</t>
         </is>
       </c>
-      <c r="C566" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -8937,9 +7237,6 @@
           <t>FREN.JK</t>
         </is>
       </c>
-      <c r="C567" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -8952,9 +7249,6 @@
           <t>GHON.JK</t>
         </is>
       </c>
-      <c r="C568" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -8967,9 +7261,6 @@
           <t>GMFI.JK</t>
         </is>
       </c>
-      <c r="C569" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -8982,9 +7273,6 @@
           <t>GOLD.JK</t>
         </is>
       </c>
-      <c r="C570" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -8997,9 +7285,6 @@
           <t>HADE.JK</t>
         </is>
       </c>
-      <c r="C571" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -9012,9 +7297,6 @@
           <t>IBST.JK</t>
         </is>
       </c>
-      <c r="C572" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -9027,9 +7309,6 @@
           <t>IDPR.JK</t>
         </is>
       </c>
-      <c r="C573" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -9042,9 +7321,6 @@
           <t>IPCC.JK</t>
         </is>
       </c>
-      <c r="C574" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -9057,9 +7333,6 @@
           <t>IPCM.JK</t>
         </is>
       </c>
-      <c r="C575" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -9072,9 +7345,6 @@
           <t>ISAT.JK</t>
         </is>
       </c>
-      <c r="C576" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -9087,9 +7357,6 @@
           <t>JKON.JK</t>
         </is>
       </c>
-      <c r="C577" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -9102,9 +7369,6 @@
           <t>JSMR.JK</t>
         </is>
       </c>
-      <c r="C578" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -9117,9 +7381,6 @@
           <t>WIKA.JK</t>
         </is>
       </c>
-      <c r="C579" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -9132,9 +7393,6 @@
           <t>WSKT.JK</t>
         </is>
       </c>
-      <c r="C580" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -9147,9 +7405,6 @@
           <t>AKSI.JK</t>
         </is>
       </c>
-      <c r="C581" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -9162,9 +7417,6 @@
           <t>TNCA.JK</t>
         </is>
       </c>
-      <c r="C582" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -9177,9 +7429,6 @@
           <t>TMAS.JK</t>
         </is>
       </c>
-      <c r="C583" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -9189,11 +7438,8 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>TAXI.JK</t>
-        </is>
-      </c>
-      <c r="C584" t="b">
-        <v>0</v>
+          <t>SMDR.JK</t>
+        </is>
       </c>
     </row>
     <row r="585">
@@ -9204,11 +7450,8 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>SMDR.JK</t>
-        </is>
-      </c>
-      <c r="C585" t="b">
-        <v>0</v>
+          <t>SAPX.JK</t>
+        </is>
       </c>
     </row>
     <row r="586">
@@ -9219,11 +7462,8 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>SDMU.JK</t>
-        </is>
-      </c>
-      <c r="C586" t="b">
-        <v>0</v>
+          <t>SAFE.JK</t>
+        </is>
       </c>
     </row>
     <row r="587">
@@ -9234,11 +7474,8 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>SAPX.JK</t>
-        </is>
-      </c>
-      <c r="C587" t="b">
-        <v>0</v>
+          <t>NELY.JK</t>
+        </is>
       </c>
     </row>
     <row r="588">
@@ -9249,11 +7486,8 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>SAFE.JK</t>
-        </is>
-      </c>
-      <c r="C588" t="b">
-        <v>0</v>
+          <t>MIRA.JK</t>
+        </is>
       </c>
     </row>
     <row r="589">
@@ -9264,11 +7498,8 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NELY.JK</t>
-        </is>
-      </c>
-      <c r="C589" t="b">
-        <v>0</v>
+          <t>TRUK.JK</t>
+        </is>
       </c>
     </row>
     <row r="590">
@@ -9279,11 +7510,8 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>TRUK.JK</t>
-        </is>
-      </c>
-      <c r="C590" t="b">
-        <v>0</v>
+          <t>LRNA.JK</t>
+        </is>
       </c>
     </row>
     <row r="591">
@@ -9294,11 +7522,8 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>MIRA.JK</t>
-        </is>
-      </c>
-      <c r="C591" t="b">
-        <v>0</v>
+          <t>GIAA.JK</t>
+        </is>
       </c>
     </row>
     <row r="592">
@@ -9309,11 +7534,8 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>HELI.JK</t>
-        </is>
-      </c>
-      <c r="C592" t="b">
-        <v>0</v>
+          <t>DEAL.JK</t>
+        </is>
       </c>
     </row>
     <row r="593">
@@ -9324,11 +7546,8 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>GIAA.JK</t>
-        </is>
-      </c>
-      <c r="C593" t="b">
-        <v>0</v>
+          <t>CMPP.JK</t>
+        </is>
       </c>
     </row>
     <row r="594">
@@ -9339,11 +7558,8 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>DEAL.JK</t>
-        </is>
-      </c>
-      <c r="C594" t="b">
-        <v>0</v>
+          <t>BPTR.JK</t>
+        </is>
       </c>
     </row>
     <row r="595">
@@ -9354,11 +7570,8 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>CMPP.JK</t>
-        </is>
-      </c>
-      <c r="C595" t="b">
-        <v>0</v>
+          <t>BLTA.JK</t>
+        </is>
       </c>
     </row>
     <row r="596">
@@ -9369,11 +7582,8 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>BPTR.JK</t>
-        </is>
-      </c>
-      <c r="C596" t="b">
-        <v>0</v>
+          <t>BIRD.JK</t>
+        </is>
       </c>
     </row>
     <row r="597">
@@ -9384,11 +7594,8 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>BLTA.JK</t>
-        </is>
-      </c>
-      <c r="C597" t="b">
-        <v>0</v>
+          <t>ASSA.JK</t>
+        </is>
       </c>
     </row>
     <row r="598">
@@ -9399,11 +7606,8 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>BIRD.JK</t>
-        </is>
-      </c>
-      <c r="C598" t="b">
-        <v>0</v>
+          <t>HELI.JK</t>
+        </is>
       </c>
     </row>
     <row r="599">
@@ -9414,41 +7618,8 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>ASSA.JK</t>
-        </is>
-      </c>
-      <c r="C599" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>transportation-logistics</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>LRNA.JK</t>
-        </is>
-      </c>
-      <c r="C600" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>transportation-logistics</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
           <t>WEHA.JK</t>
         </is>
-      </c>
-      <c r="C601" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9462,7 +7633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9476,11 +7647,6 @@
           <t>correlation</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>is_more_related</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -9491,9 +7657,6 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -9504,9 +7667,6 @@
       <c r="B3" t="n">
         <v>0.8030333049948873</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -9517,9 +7677,6 @@
       <c r="B4" t="n">
         <v>0.7643778553214187</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -9530,9 +7687,6 @@
       <c r="B5" t="n">
         <v>0.6976910678896708</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -9543,9 +7697,6 @@
       <c r="B6" t="n">
         <v>0.6610043375123298</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -9556,9 +7707,6 @@
       <c r="B7" t="n">
         <v>0.6499935947970554</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -9569,9 +7717,6 @@
       <c r="B8" t="n">
         <v>0.54565802362442</v>
       </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -9580,10 +7725,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5138173917649222</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
+        <v>0.5177012148579992</v>
       </c>
     </row>
     <row r="10">
@@ -9595,9 +7737,6 @@
       <c r="B10" t="n">
         <v>0.391744017555433</v>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -9608,9 +7747,6 @@
       <c r="B11" t="n">
         <v>0.2660233017102231</v>
       </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -9620,9 +7756,6 @@
       </c>
       <c r="B12" t="n">
         <v>0.2652431543544971</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
